--- a/codigo_y_datos/resultados_pruebas/analisis_bastian.xlsx
+++ b/codigo_y_datos/resultados_pruebas/analisis_bastian.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moyax\OneDrive\Documentos\GitHub\tesis_entrega\codigo_y_datos\resultados_pruebas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73122680-D2B8-41C8-8C06-64583ED1869B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF2494D-7DCD-4D4B-81D0-DE9F3E8B7876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -100,7 +103,7 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -112,53 +115,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -313,16 +269,63 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
           <color auto="1"/>
-        </top>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -338,18 +341,1404 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CL"/>
+              <a:t>Evolucion Fitness</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CL" baseline="0"/>
+              <a:t> vs Máximo por tipo</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CL" sz="700" baseline="0"/>
+              <a:t>5 vehiculos por clientes</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CL" sz="700"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fitness Mínimo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>([1]Sheet1!$B$62,[1]Sheet1!$B$63,[1]Sheet1!$B$65,[1]Sheet1!$B$68,[1]Sheet1!$B$72)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$F$62,Sheet1!$F$63,Sheet1!$F$65,Sheet1!$F$68,Sheet1!$F$72)</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6285890.8735164832</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5966115.7214656323</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7882967.8997429423</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6672458.7276441334</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5893559.1890472481</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-310A-4F70-AB19-9551AD3D5172}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Promedio Fitness</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>([1]Sheet1!$B$62,[1]Sheet1!$B$63,[1]Sheet1!$B$65,[1]Sheet1!$B$68,[1]Sheet1!$B$72)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$H$62,Sheet1!$H$63,Sheet1!$H$65,Sheet1!$H$68,Sheet1!$H$72)</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8493621.4564496782</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8201847.7904740963</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9596519.6253367923</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9569741.5279797073</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7820887.5377510246</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-310A-4F70-AB19-9551AD3D5172}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fitness Máximo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>([1]Sheet1!$B$62,[1]Sheet1!$B$63,[1]Sheet1!$B$65,[1]Sheet1!$B$68,[1]Sheet1!$B$72)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$D$62,Sheet1!$D$63,Sheet1!$D$65,Sheet1!$D$68,Sheet1!$D$72)</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8964395.4971320555</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8668933.0603239797</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10077464.81352785</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10113630.723158389</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8263449.9499096572</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-310A-4F70-AB19-9551AD3D5172}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="699129183"/>
+        <c:axId val="699130143"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="699129183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL"/>
+                  <a:t>Máximo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-CL" baseline="0"/>
+                  <a:t> por Tipo</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="699130143"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="699130143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL"/>
+                  <a:t>Fitness</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="699129183"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7D602BD-76A2-467F-A95C-D70D2807C3DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="F1" t="str">
+            <v>Mínimo</v>
+          </cell>
+          <cell r="H1" t="str">
+            <v>Promedio</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="B62">
+            <v>1</v>
+          </cell>
+          <cell r="D62">
+            <v>9066512.1459101215</v>
+          </cell>
+          <cell r="F62">
+            <v>6144569.6806189483</v>
+          </cell>
+          <cell r="H62">
+            <v>8520991.8164595943</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="B63">
+            <v>2</v>
+          </cell>
+          <cell r="D63">
+            <v>8653931.2808938902</v>
+          </cell>
+          <cell r="F63">
+            <v>5834130.2380862078</v>
+          </cell>
+          <cell r="H63">
+            <v>8197036.434513011</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="B65">
+            <v>3</v>
+          </cell>
+          <cell r="D65">
+            <v>9995201.1224868037</v>
+          </cell>
+          <cell r="F65">
+            <v>7649460.9863265138</v>
+          </cell>
+          <cell r="H65">
+            <v>9525948.9335632995</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="B68">
+            <v>4</v>
+          </cell>
+          <cell r="D68">
+            <v>10087921.05949226</v>
+          </cell>
+          <cell r="F68">
+            <v>6920285.2300867084</v>
+          </cell>
+          <cell r="H68">
+            <v>9565661.9652667511</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="B72">
+            <v>5</v>
+          </cell>
+          <cell r="D72">
+            <v>8333658.3720827019</v>
+          </cell>
+          <cell r="F72">
+            <v>6233869.0850352366</v>
+          </cell>
+          <cell r="H72">
+            <v>7943521.561159268</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2BE1AA4A-41A5-49F0-BAB7-92AC3B80A056}" name="Tabla1" displayName="Tabla1" ref="A1:H76" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="10" tableBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2BE1AA4A-41A5-49F0-BAB7-92AC3B80A056}" name="Tabla1" displayName="Tabla1" ref="A1:H76" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8">
   <autoFilter ref="A1:H76" xr:uid="{2BE1AA4A-41A5-49F0-BAB7-92AC3B80A056}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{BB28AF03-ECA7-46FC-94A8-F9D99969908A}" name="Clientes" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{AEAFE261-AB55-4EDB-ADCC-8DC22E7E7513}" name="Máximo por tipo" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{4CEE05E8-A293-4E17-B44E-840D7492168B}" name="Máximo por cliente" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{14F0B5DC-EED3-465E-99B6-CD27444BAABA}" name="Fitness Máximo" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{46112112-40F7-45B0-8534-70959554CAFE}" name="Lugar Máximo" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{AEC1E005-7C78-4DD6-A747-1CB2BF83315A}" name="Fitness Mínimo" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{55B5A0CF-5AC9-4FF5-BCC5-54C9786EC5AD}" name="Lugar Mínimo" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{68E09ED8-D9D6-43C1-86E9-C1E0BF8640CC}" name="Promedio Fitness" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{BB28AF03-ECA7-46FC-94A8-F9D99969908A}" name="Clientes" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{AEAFE261-AB55-4EDB-ADCC-8DC22E7E7513}" name="Máximo por tipo" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{4CEE05E8-A293-4E17-B44E-840D7492168B}" name="Máximo por cliente" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{14F0B5DC-EED3-465E-99B6-CD27444BAABA}" name="Fitness Máximo" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{46112112-40F7-45B0-8534-70959554CAFE}" name="Lugar Máximo" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{AEC1E005-7C78-4DD6-A747-1CB2BF83315A}" name="Fitness Mínimo" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{55B5A0CF-5AC9-4FF5-BCC5-54C9786EC5AD}" name="Lugar Mínimo" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{68E09ED8-D9D6-43C1-86E9-C1E0BF8640CC}" name="Promedio Fitness" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -638,12 +2027,291 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="1F497D"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="EEECE1"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4F81BD"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="C0504D"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="9BBB59"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="8064A2"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4BACC6"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="F79646"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0000FF"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="800080"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Cambria"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="50000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="35000">
+            <a:schemeClr val="phClr">
+              <a:tint val="37000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:tint val="15000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="16200000" scaled="1"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:shade val="51000"/>
+              <a:satMod val="130000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="80000">
+            <a:schemeClr val="phClr">
+              <a:shade val="93000"/>
+              <a:satMod val="130000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="94000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="16200000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+            <a:satMod val="105000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+      <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+      <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="threePt" dir="t">
+            <a:rot lat="0" lon="0" rev="1200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="63500" h="25400"/>
+        </a:sp3d>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="40000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="40000">
+            <a:schemeClr val="phClr">
+              <a:tint val="45000"/>
+              <a:shade val="99000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="20000"/>
+              <a:satMod val="255000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="80000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="30000"/>
+              <a:satMod val="200000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2633,8 +4301,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>